--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H2">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N2">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q2">
-        <v>5.823576661283334</v>
+        <v>0.1821987947022222</v>
       </c>
       <c r="R2">
-        <v>52.41218995155</v>
+        <v>1.63978915232</v>
       </c>
       <c r="S2">
-        <v>3.170588572650576E-05</v>
+        <v>7.917602611483899E-06</v>
       </c>
       <c r="T2">
-        <v>3.170588572650576E-05</v>
+        <v>7.917602611483899E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H3">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q3">
-        <v>1.512327514736667</v>
+        <v>0.4830694200182222</v>
       </c>
       <c r="R3">
-        <v>13.61094763263</v>
+        <v>4.347624780164</v>
       </c>
       <c r="S3">
-        <v>8.233717207171545E-06</v>
+        <v>2.09921899193422E-05</v>
       </c>
       <c r="T3">
-        <v>8.233717207171547E-06</v>
+        <v>2.09921899193422E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H4">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N4">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q4">
-        <v>108.21857195442</v>
+        <v>3.904086351031111</v>
       </c>
       <c r="R4">
-        <v>973.96714758978</v>
+        <v>35.13677715928</v>
       </c>
       <c r="S4">
-        <v>0.0005891852851674077</v>
+        <v>0.0001696553719737947</v>
       </c>
       <c r="T4">
-        <v>0.0005891852851674077</v>
+        <v>0.0001696553719737947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J5">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N5">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q5">
-        <v>9186.799484207742</v>
+        <v>899.821255376071</v>
       </c>
       <c r="R5">
-        <v>82681.19535786968</v>
+        <v>8098.391298384639</v>
       </c>
       <c r="S5">
-        <v>0.05001661892339967</v>
+        <v>0.03910249314809219</v>
       </c>
       <c r="T5">
-        <v>0.05001661892339967</v>
+        <v>0.03910249314809219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J6">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q6">
         <v>2385.724519555703</v>
@@ -818,10 +818,10 @@
         <v>21471.52067600133</v>
       </c>
       <c r="S6">
-        <v>0.01298884060286191</v>
+        <v>0.1036736753236327</v>
       </c>
       <c r="T6">
-        <v>0.01298884060286191</v>
+        <v>0.1036736753236327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J7">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N7">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q7">
-        <v>170716.7912156371</v>
+        <v>19281.02700801539</v>
       </c>
       <c r="R7">
-        <v>1536451.120940734</v>
+        <v>173529.2430721385</v>
       </c>
       <c r="S7">
-        <v>0.9294506432557097</v>
+        <v>0.8378733242459387</v>
       </c>
       <c r="T7">
-        <v>0.9294506432557096</v>
+        <v>0.8378733242459389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H8">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I8">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J8">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N8">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q8">
-        <v>64.00749282101778</v>
+        <v>17.57337838578666</v>
       </c>
       <c r="R8">
-        <v>576.06743538916</v>
+        <v>158.16040547208</v>
       </c>
       <c r="S8">
-        <v>0.000348482448340623</v>
+        <v>0.0007636660101253797</v>
       </c>
       <c r="T8">
-        <v>0.000348482448340623</v>
+        <v>0.0007636660101253797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H9">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I9">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J9">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q9">
-        <v>16.62213759219289</v>
+        <v>46.59285325381567</v>
       </c>
       <c r="R9">
-        <v>149.599238329736</v>
+        <v>419.335679284341</v>
       </c>
       <c r="S9">
-        <v>9.049758004081715E-05</v>
+        <v>0.002024731816705029</v>
       </c>
       <c r="T9">
-        <v>9.049758004081717E-05</v>
+        <v>0.002024731816705029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H10">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I10">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J10">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N10">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q10">
-        <v>1189.440763015024</v>
+        <v>376.5556561973133</v>
       </c>
       <c r="R10">
-        <v>10704.96686713522</v>
+        <v>3389.00090577582</v>
       </c>
       <c r="S10">
-        <v>0.006475792301546101</v>
+        <v>0.01636354429100138</v>
       </c>
       <c r="T10">
-        <v>0.006475792301546102</v>
+        <v>0.01636354429100138</v>
       </c>
     </row>
   </sheetData>
